--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>23.17518866666667</v>
+        <v>37.99343233333334</v>
       </c>
       <c r="H2">
-        <v>69.525566</v>
+        <v>113.980297</v>
       </c>
       <c r="I2">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467733</v>
       </c>
       <c r="J2">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467734</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N2">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q2">
-        <v>1615.870717126111</v>
+        <v>3485.779624278623</v>
       </c>
       <c r="R2">
-        <v>14542.836454135</v>
+        <v>31372.0166185076</v>
       </c>
       <c r="S2">
-        <v>0.03416733384913094</v>
+        <v>0.0703332443174861</v>
       </c>
       <c r="T2">
-        <v>0.03416733384913094</v>
+        <v>0.07033324431748611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>23.17518866666667</v>
+        <v>37.99343233333334</v>
       </c>
       <c r="H3">
-        <v>69.525566</v>
+        <v>113.980297</v>
       </c>
       <c r="I3">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467733</v>
       </c>
       <c r="J3">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467734</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>428.209</v>
       </c>
       <c r="O3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q3">
-        <v>3307.941454588222</v>
+        <v>5423.043222008112</v>
       </c>
       <c r="R3">
-        <v>29771.473091294</v>
+        <v>48807.388998073</v>
       </c>
       <c r="S3">
-        <v>0.06994590522273489</v>
+        <v>0.1094217836438005</v>
       </c>
       <c r="T3">
-        <v>0.06994590522273489</v>
+        <v>0.1094217836438005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>23.17518866666667</v>
+        <v>37.99343233333334</v>
       </c>
       <c r="H4">
-        <v>69.525566</v>
+        <v>113.980297</v>
       </c>
       <c r="I4">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467733</v>
       </c>
       <c r="J4">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467734</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N4">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q4">
-        <v>4565.917416407421</v>
+        <v>6368.932196603795</v>
       </c>
       <c r="R4">
-        <v>41093.25674766679</v>
+        <v>57320.38976943415</v>
       </c>
       <c r="S4">
-        <v>0.09654561038856818</v>
+        <v>0.1285071669778724</v>
       </c>
       <c r="T4">
-        <v>0.09654561038856818</v>
+        <v>0.1285071669778724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>23.17518866666667</v>
+        <v>37.99343233333334</v>
       </c>
       <c r="H5">
-        <v>69.525566</v>
+        <v>113.980297</v>
       </c>
       <c r="I5">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467733</v>
       </c>
       <c r="J5">
-        <v>0.2781252059919919</v>
+        <v>0.3685480664467734</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N5">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q5">
-        <v>3663.605057231565</v>
+        <v>2987.822680047707</v>
       </c>
       <c r="R5">
-        <v>32972.44551508409</v>
+        <v>26890.40412042936</v>
       </c>
       <c r="S5">
-        <v>0.07746635653155785</v>
+        <v>0.06028587150761442</v>
       </c>
       <c r="T5">
-        <v>0.07746635653155785</v>
+        <v>0.06028587150761443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>116.03336</v>
       </c>
       <c r="I6">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371754</v>
       </c>
       <c r="J6">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N6">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q6">
-        <v>2696.776443844444</v>
+        <v>3548.567012635403</v>
       </c>
       <c r="R6">
-        <v>24270.9879946</v>
+        <v>31937.10311371863</v>
       </c>
       <c r="S6">
-        <v>0.05702291655930419</v>
+        <v>0.07160011749977117</v>
       </c>
       <c r="T6">
-        <v>0.05702291655930419</v>
+        <v>0.07160011749977122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>116.03336</v>
       </c>
       <c r="I7">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371754</v>
       </c>
       <c r="J7">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>428.209</v>
       </c>
       <c r="O7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q7">
         <v>5520.725450248889</v>
@@ -883,10 +883,10 @@
         <v>49686.52905224</v>
       </c>
       <c r="S7">
-        <v>0.1167348770844307</v>
+        <v>0.1113927367059169</v>
       </c>
       <c r="T7">
-        <v>0.1167348770844307</v>
+        <v>0.1113927367059169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>116.03336</v>
       </c>
       <c r="I8">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371754</v>
       </c>
       <c r="J8">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371755</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N8">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q8">
-        <v>7620.200306003581</v>
+        <v>6483.65219108105</v>
       </c>
       <c r="R8">
-        <v>68581.80275403224</v>
+        <v>58352.86971972944</v>
       </c>
       <c r="S8">
-        <v>0.1611279448862951</v>
+        <v>0.1308218943184853</v>
       </c>
       <c r="T8">
-        <v>0.1611279448862951</v>
+        <v>0.1308218943184854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>116.03336</v>
       </c>
       <c r="I9">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371754</v>
       </c>
       <c r="J9">
-        <v>0.4641717285975485</v>
+        <v>0.3751865155371755</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N9">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q9">
-        <v>6114.303398890284</v>
+        <v>3041.640649963742</v>
       </c>
       <c r="R9">
-        <v>55028.73059001256</v>
+        <v>27374.76584967368</v>
       </c>
       <c r="S9">
-        <v>0.1292859900675185</v>
+        <v>0.06137176701300195</v>
       </c>
       <c r="T9">
-        <v>0.1292859900675185</v>
+        <v>0.06137176701300197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.32041366666667</v>
+        <v>26.18781466666667</v>
       </c>
       <c r="H10">
-        <v>63.961241</v>
+        <v>78.563444</v>
       </c>
       <c r="I10">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="J10">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N10">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O10">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P10">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q10">
-        <v>1486.548075896944</v>
+        <v>2402.650804711928</v>
       </c>
       <c r="R10">
-        <v>13378.9326830725</v>
+        <v>21623.85724240735</v>
       </c>
       <c r="S10">
-        <v>0.0314328268057785</v>
+        <v>0.04847874629836362</v>
       </c>
       <c r="T10">
-        <v>0.0314328268057785</v>
+        <v>0.04847874629836364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.32041366666667</v>
+        <v>26.18781466666667</v>
       </c>
       <c r="H11">
-        <v>63.961241</v>
+        <v>78.563444</v>
       </c>
       <c r="I11">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="J11">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>428.209</v>
       </c>
       <c r="O11">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P11">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q11">
-        <v>3043.197671929889</v>
+        <v>3737.952643532889</v>
       </c>
       <c r="R11">
-        <v>27388.779047369</v>
+        <v>33641.573791796</v>
       </c>
       <c r="S11">
-        <v>0.06434793930213391</v>
+        <v>0.0754213877129995</v>
       </c>
       <c r="T11">
-        <v>0.06434793930213391</v>
+        <v>0.07542138771299951</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.32041366666667</v>
+        <v>26.18781466666667</v>
       </c>
       <c r="H12">
-        <v>63.961241</v>
+        <v>78.563444</v>
       </c>
       <c r="I12">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="J12">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N12">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O12">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P12">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q12">
-        <v>4200.494308193513</v>
+        <v>4389.927567636354</v>
       </c>
       <c r="R12">
-        <v>37804.44877374162</v>
+        <v>39509.34810872719</v>
       </c>
       <c r="S12">
-        <v>0.08881879585928598</v>
+        <v>0.08857641085515618</v>
       </c>
       <c r="T12">
-        <v>0.08881879585928598</v>
+        <v>0.08857641085515619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.32041366666667</v>
+        <v>26.18781466666667</v>
       </c>
       <c r="H13">
-        <v>63.961241</v>
+        <v>78.563444</v>
       </c>
       <c r="I13">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="J13">
-        <v>0.2558660698803723</v>
+        <v>0.2540299169390597</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N13">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O13">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P13">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q13">
-        <v>3370.396524271474</v>
+        <v>2059.422952774531</v>
       </c>
       <c r="R13">
-        <v>30333.56871844326</v>
+        <v>18534.80657497077</v>
       </c>
       <c r="S13">
-        <v>0.07126650791317393</v>
+        <v>0.0415533720725404</v>
       </c>
       <c r="T13">
-        <v>0.07126650791317393</v>
+        <v>0.04155337207254041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1530703333333333</v>
+        <v>0.2304566666666667</v>
       </c>
       <c r="H14">
-        <v>0.459211</v>
+        <v>0.69137</v>
       </c>
       <c r="I14">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991453</v>
       </c>
       <c r="J14">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N14">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O14">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P14">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q14">
-        <v>10.67270143305556</v>
+        <v>21.14368467418111</v>
       </c>
       <c r="R14">
-        <v>96.05431289749998</v>
+        <v>190.29316206763</v>
       </c>
       <c r="S14">
-        <v>0.0002256726042934087</v>
+        <v>0.0004266201826424471</v>
       </c>
       <c r="T14">
-        <v>0.0002256726042934087</v>
+        <v>0.0004266201826424472</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1530703333333333</v>
+        <v>0.2304566666666667</v>
       </c>
       <c r="H15">
-        <v>0.459211</v>
+        <v>0.69137</v>
       </c>
       <c r="I15">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991453</v>
       </c>
       <c r="J15">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991454</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>428.209</v>
       </c>
       <c r="O15">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P15">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q15">
-        <v>21.84869812211111</v>
+        <v>32.89453959222222</v>
       </c>
       <c r="R15">
-        <v>196.638283099</v>
+        <v>296.05085633</v>
       </c>
       <c r="S15">
-        <v>0.0004619873081398188</v>
+        <v>0.0006637194370340546</v>
       </c>
       <c r="T15">
-        <v>0.0004619873081398188</v>
+        <v>0.0006637194370340547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1530703333333333</v>
+        <v>0.2304566666666667</v>
       </c>
       <c r="H16">
-        <v>0.459211</v>
+        <v>0.69137</v>
       </c>
       <c r="I16">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991453</v>
       </c>
       <c r="J16">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N16">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O16">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P16">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q16">
-        <v>30.15753230553878</v>
+        <v>38.63201595944223</v>
       </c>
       <c r="R16">
-        <v>271.417790749849</v>
+        <v>347.6881436349801</v>
       </c>
       <c r="S16">
-        <v>0.0006376763087717227</v>
+        <v>0.0007794855985810567</v>
       </c>
       <c r="T16">
-        <v>0.0006376763087717227</v>
+        <v>0.0007794855985810569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1530703333333333</v>
+        <v>0.2304566666666667</v>
       </c>
       <c r="H17">
-        <v>0.459211</v>
+        <v>0.69137</v>
       </c>
       <c r="I17">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991453</v>
       </c>
       <c r="J17">
-        <v>0.001836995530087286</v>
+        <v>0.002235501076991454</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N17">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O17">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P17">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q17">
-        <v>24.19782878051456</v>
+        <v>18.12322849364556</v>
       </c>
       <c r="R17">
-        <v>217.780459024631</v>
+        <v>163.10905644281</v>
       </c>
       <c r="S17">
-        <v>0.0005116593088823356</v>
+        <v>0.0003656758587338949</v>
       </c>
       <c r="T17">
-        <v>0.0005116593088823356</v>
+        <v>0.000365675858733895</v>
       </c>
     </row>
   </sheetData>
